--- a/fsdviz/tests/xls_files/too_many_missing_fields.xlsx
+++ b/fsdviz/tests/xls_files/too_many_missing_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1work\fsdviz\fsdviz\tests\xls_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57ED691-99A7-4956-850A-F0EA79CB6439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A8C64C-2645-4A8B-9E28-7685BF949994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B75592B0-B996-4C91-8D85-EEB976D88E37}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Enter\paste your data below:</t>
   </si>
   <si>
-    <t>OMNR</t>
-  </si>
-  <si>
     <t>HU</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Chatsworth</t>
+  </si>
+  <si>
+    <t>MNRF</t>
   </si>
 </sst>
 </file>
@@ -763,7 +763,7 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1189,16 +1189,16 @@
         <v>42701</v>
       </c>
       <c r="C10" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="E10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="F10" s="51" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>47</v>
       </c>
       <c r="G10" s="50">
         <v>44.566400000000002</v>
@@ -1219,13 +1219,13 @@
         <v>37</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="50">
         <v>16</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="52"/>
       <c r="Q10" s="51"/>
@@ -1243,7 +1243,7 @@
         <v>380</v>
       </c>
       <c r="Y10" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z10" s="50">
         <v>30747</v>
